--- a/datasets/Genesis_post_processed.xlsx
+++ b/datasets/Genesis_post_processed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\anjohann\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\anjohann\Documents\Masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AAF243-F1B0-4CCA-82AC-3A1C58F29721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4E4A03-599C-41DD-BB87-778F5294EAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Wind power (MWh, gross)</t>
   </si>
@@ -59,13 +59,22 @@
   <si>
     <t>DateTime</t>
   </si>
+  <si>
+    <t>Wind power penetration (net)</t>
+  </si>
+  <si>
+    <t>River water penetration (net)</t>
+  </si>
+  <si>
+    <t>Photovoltaic energy penetration (net)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -133,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA45552-632C-4A04-8B3B-862B5E5E46D1}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,15 +468,18 @@
     <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -478,3155 +490,4351 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>37257</v>
       </c>
       <c r="B2" s="1">
-        <v>15802</v>
+        <v>1580200</v>
       </c>
       <c r="C2" s="1">
-        <v>15705</v>
+        <v>1570500</v>
       </c>
       <c r="D2" s="1">
+        <v>3.3226166165442737E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>1188995</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1168552</v>
       </c>
-      <c r="F2" s="1">
-        <v>46</v>
-      </c>
       <c r="G2" s="1">
-        <v>29</v>
+        <v>2.4722383269634156E-2</v>
       </c>
       <c r="H2" s="1">
+        <v>46000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>29000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.1353633798015886E-4</v>
+      </c>
+      <c r="K2" s="1">
         <v>50637742</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>47266964</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>37288</v>
       </c>
       <c r="B3" s="1">
-        <v>22382</v>
+        <v>2238200</v>
       </c>
       <c r="C3" s="1">
-        <v>21786</v>
+        <v>2178600</v>
       </c>
       <c r="D3" s="1">
+        <v>5.4220556111369209E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>1217025</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1198807</v>
       </c>
-      <c r="F3" s="1">
-        <v>82</v>
-      </c>
       <c r="G3" s="1">
-        <v>77</v>
+        <v>2.9835666120537129E-2</v>
       </c>
       <c r="H3" s="1">
+        <v>82000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>77000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.9163604243897132E-3</v>
+      </c>
+      <c r="K3" s="1">
         <v>42949437</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>40180333</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>37316</v>
       </c>
       <c r="B4" s="1">
-        <v>13239</v>
+        <v>1323900</v>
       </c>
       <c r="C4" s="1">
-        <v>12644</v>
+        <v>1264400</v>
       </c>
       <c r="D4" s="1">
+        <v>2.9785555776939639E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>1526524</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1507357</v>
       </c>
-      <c r="F4" s="1">
-        <v>153</v>
-      </c>
       <c r="G4" s="1">
-        <v>139</v>
+        <v>3.5508910154429293E-2</v>
       </c>
       <c r="H4" s="1">
+        <v>153000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>139000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.2744323418179449E-3</v>
+      </c>
+      <c r="K4" s="1">
         <v>45403283</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>42450106</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>37347</v>
       </c>
       <c r="B5" s="1">
-        <v>10492</v>
+        <v>1049200</v>
       </c>
       <c r="C5" s="1">
-        <v>9629</v>
+        <v>962900</v>
       </c>
       <c r="D5" s="1">
+        <v>2.423643524801759E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>1519960</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1498684</v>
       </c>
-      <c r="F5" s="1">
-        <v>405</v>
-      </c>
       <c r="G5" s="1">
-        <v>392</v>
+        <v>3.7722253321466399E-2</v>
       </c>
       <c r="H5" s="1">
+        <v>405000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>392000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.8667386200258552E-3</v>
+      </c>
+      <c r="K5" s="1">
         <v>42464119</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>39729440</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>37377</v>
       </c>
       <c r="B6" s="1">
-        <v>6597</v>
+        <v>659700</v>
       </c>
       <c r="C6" s="1">
-        <v>6172</v>
+        <v>617200</v>
       </c>
       <c r="D6" s="1">
+        <v>1.6614134650024141E-2</v>
+      </c>
+      <c r="E6" s="1">
         <v>1733795</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1713581</v>
       </c>
-      <c r="F6" s="1">
-        <v>197</v>
-      </c>
       <c r="G6" s="1">
-        <v>187</v>
+        <v>4.6127131347574561E-2</v>
       </c>
       <c r="H6" s="1">
+        <v>197000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>187000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.033770543672253E-3</v>
+      </c>
+      <c r="K6" s="1">
         <v>39726343</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>37149091</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>37408</v>
       </c>
       <c r="B7" s="1">
-        <v>7131</v>
+        <v>713100</v>
       </c>
       <c r="C7" s="1">
-        <v>6641</v>
+        <v>664100</v>
       </c>
       <c r="D7" s="1">
+        <v>1.8430156409335968E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>1551303</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1531272</v>
       </c>
-      <c r="F7" s="1">
-        <v>144</v>
-      </c>
       <c r="G7" s="1">
-        <v>141</v>
+        <v>4.2495983233303274E-2</v>
       </c>
       <c r="H7" s="1">
+        <v>144000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>141000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.9130432972690424E-3</v>
+      </c>
+      <c r="K7" s="1">
         <v>38579546</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>36033335</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>37438</v>
       </c>
       <c r="B8" s="1">
-        <v>4445</v>
+        <v>444500</v>
       </c>
       <c r="C8" s="1">
-        <v>4007</v>
+        <v>400700</v>
       </c>
       <c r="D8" s="1">
+        <v>1.0763575630276254E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>1511959</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1495199</v>
       </c>
-      <c r="F8" s="1">
-        <v>132</v>
-      </c>
       <c r="G8" s="1">
-        <v>130</v>
+        <v>4.016393191618025E-2</v>
       </c>
       <c r="H8" s="1">
+        <v>132000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>130000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.4920509906062216E-3</v>
+      </c>
+      <c r="K8" s="1">
         <v>39848850</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>37227406</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>37469</v>
       </c>
       <c r="B9" s="1">
-        <v>4290</v>
+        <v>429000</v>
       </c>
       <c r="C9" s="1">
-        <v>4249</v>
+        <v>424900</v>
       </c>
       <c r="D9" s="1">
+        <v>1.1579651089224386E-2</v>
+      </c>
+      <c r="E9" s="1">
         <v>1647983</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1630664</v>
       </c>
-      <c r="F9" s="1">
-        <v>114</v>
-      </c>
       <c r="G9" s="1">
-        <v>112</v>
+        <v>4.4439915659588124E-2</v>
       </c>
       <c r="H9" s="1">
+        <v>114000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>112000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.0522968274726554E-3</v>
+      </c>
+      <c r="K9" s="1">
         <v>39322242</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>36693679</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>37500</v>
       </c>
       <c r="B10" s="1">
-        <v>38144</v>
+        <v>3814400</v>
       </c>
       <c r="C10" s="1">
-        <v>37624</v>
+        <v>3762400</v>
       </c>
       <c r="D10" s="1">
+        <v>9.932160419385104E-2</v>
+      </c>
+      <c r="E10" s="1">
         <v>1460259</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1444455</v>
       </c>
-      <c r="F10" s="1">
-        <v>106</v>
-      </c>
       <c r="G10" s="1">
-        <v>106</v>
+        <v>3.813140223948254E-2</v>
       </c>
       <c r="H10" s="1">
+        <v>106000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>106000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.7982378387593587E-3</v>
+      </c>
+      <c r="K10" s="1">
         <v>40517235</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <v>37880983</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>37530</v>
       </c>
       <c r="B11" s="1">
-        <v>15635</v>
+        <v>1563500</v>
       </c>
       <c r="C11" s="1">
-        <v>14583</v>
+        <v>1458300</v>
       </c>
       <c r="D11" s="1">
+        <v>3.3888758378683534E-2</v>
+      </c>
+      <c r="E11" s="1">
         <v>1619246</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1598925</v>
       </c>
-      <c r="F11" s="1">
-        <v>48</v>
-      </c>
       <c r="G11" s="1">
-        <v>48</v>
+        <v>3.7156677631925233E-2</v>
       </c>
       <c r="H11" s="1">
+        <v>48000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>48000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.115449771773167E-3</v>
+      </c>
+      <c r="K11" s="1">
         <v>45971493</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>43031969</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>37561</v>
       </c>
       <c r="B12" s="1">
-        <v>12083</v>
+        <v>1208300</v>
       </c>
       <c r="C12" s="1">
-        <v>10357</v>
+        <v>1035700</v>
       </c>
       <c r="D12" s="1">
+        <v>2.4417347902107301E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>1604470</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1585285</v>
       </c>
-      <c r="F12" s="1">
-        <v>193</v>
-      </c>
       <c r="G12" s="1">
-        <v>196</v>
+        <v>3.7374196552082815E-2</v>
       </c>
       <c r="H12" s="1">
+        <v>193000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>196000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.620836331768882E-3</v>
+      </c>
+      <c r="K12" s="1">
         <v>45278335</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>42416564</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>37591</v>
       </c>
       <c r="B13" s="1">
-        <v>13700</v>
+        <v>1370000</v>
       </c>
       <c r="C13" s="1">
-        <v>13421</v>
+        <v>1342100</v>
       </c>
       <c r="D13" s="1">
+        <v>3.0513043138022194E-2</v>
+      </c>
+      <c r="E13" s="1">
         <v>1634774</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1614470</v>
       </c>
-      <c r="F13" s="1">
-        <v>256</v>
-      </c>
       <c r="G13" s="1">
-        <v>247</v>
+        <v>3.67054561918208E-2</v>
       </c>
       <c r="H13" s="1">
+        <v>256000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>247000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.6156185493565925E-3</v>
+      </c>
+      <c r="K13" s="1">
         <v>46970165</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>43984469</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>37622</v>
       </c>
       <c r="B14" s="1">
-        <v>16179</v>
+        <v>1617900</v>
       </c>
       <c r="C14" s="1">
-        <v>15029</v>
+        <v>1502900</v>
       </c>
       <c r="D14" s="1">
+        <v>3.2361111852784223E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>1555787</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>1532480</v>
       </c>
-      <c r="F14" s="1">
-        <v>114</v>
-      </c>
       <c r="G14" s="1">
-        <v>105</v>
+        <v>3.2998041581046487E-2</v>
       </c>
       <c r="H14" s="1">
+        <v>114000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>105000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.2609067433244684E-3</v>
+      </c>
+      <c r="K14" s="1">
         <v>49559166</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>46441544</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>37653</v>
       </c>
       <c r="B15" s="1">
-        <v>6851</v>
+        <v>685100</v>
       </c>
       <c r="C15" s="1">
-        <v>6072</v>
+        <v>607200</v>
       </c>
       <c r="D15" s="1">
+        <v>1.3919688121960126E-2</v>
+      </c>
+      <c r="E15" s="1">
         <v>1259283</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>1240062</v>
       </c>
-      <c r="F15" s="1">
-        <v>151</v>
-      </c>
       <c r="G15" s="1">
-        <v>136</v>
+        <v>2.8427661877295979E-2</v>
       </c>
       <c r="H15" s="1">
+        <v>151000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>136000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.1177167071583943E-3</v>
+      </c>
+      <c r="K15" s="1">
         <v>46608043</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>43621667</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>37681</v>
       </c>
       <c r="B16" s="1">
-        <v>12640</v>
+        <v>1264000</v>
       </c>
       <c r="C16" s="1">
-        <v>12484</v>
+        <v>1248400</v>
       </c>
       <c r="D16" s="1">
+        <v>2.8052151745422901E-2</v>
+      </c>
+      <c r="E16" s="1">
         <v>1392472</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1373453</v>
       </c>
-      <c r="F16" s="1">
-        <v>222</v>
-      </c>
       <c r="G16" s="1">
-        <v>209</v>
+        <v>3.0862153132975266E-2</v>
       </c>
       <c r="H16" s="1">
+        <v>222000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>209000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.6963310756114917E-3</v>
+      </c>
+      <c r="K16" s="1">
         <v>47631538</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>44502825</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>37712</v>
       </c>
       <c r="B17" s="1">
-        <v>19501</v>
+        <v>1950100</v>
       </c>
       <c r="C17" s="1">
-        <v>18877</v>
+        <v>1887700</v>
       </c>
       <c r="D17" s="1">
+        <v>4.6793286584996596E-2</v>
+      </c>
+      <c r="E17" s="1">
         <v>1242908</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1225469</v>
       </c>
-      <c r="F17" s="1">
-        <v>251</v>
-      </c>
       <c r="G17" s="1">
-        <v>242</v>
+        <v>3.0377561115658841E-2</v>
       </c>
       <c r="H17" s="1">
+        <v>251000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>242000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.9988215042481204E-3</v>
+      </c>
+      <c r="K17" s="1">
         <v>43179551</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <v>40341257</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>37742</v>
       </c>
       <c r="B18" s="1">
-        <v>13912</v>
+        <v>1391200</v>
       </c>
       <c r="C18" s="1">
-        <v>13549</v>
+        <v>1354900</v>
       </c>
       <c r="D18" s="1">
+        <v>3.5442165273808841E-2</v>
+      </c>
+      <c r="E18" s="1">
         <v>1513730</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1492876</v>
       </c>
-      <c r="F18" s="1">
-        <v>242</v>
-      </c>
       <c r="G18" s="1">
-        <v>236</v>
+        <v>3.9051411857186989E-2</v>
       </c>
       <c r="H18" s="1">
+        <v>242000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>236000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6.1734083730303983E-3</v>
+      </c>
+      <c r="K18" s="1">
         <v>40907037</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <v>38228477</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>37773</v>
       </c>
       <c r="B19" s="1">
-        <v>11358</v>
+        <v>1135800</v>
       </c>
       <c r="C19" s="1">
-        <v>11308</v>
+        <v>1130800</v>
       </c>
       <c r="D19" s="1">
+        <v>3.0758395739129852E-2</v>
+      </c>
+      <c r="E19" s="1">
         <v>1289305</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>1272934</v>
       </c>
-      <c r="F19" s="1">
-        <v>355</v>
-      </c>
       <c r="G19" s="1">
-        <v>351</v>
+        <v>3.4624520447288219E-2</v>
       </c>
       <c r="H19" s="1">
+        <v>355000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>351000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9.5473973332460011E-3</v>
+      </c>
+      <c r="K19" s="1">
         <v>39404698</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="1">
         <v>36763946</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>37803</v>
       </c>
       <c r="B20" s="1">
-        <v>11717</v>
+        <v>1171700</v>
       </c>
       <c r="C20" s="1">
-        <v>11594</v>
+        <v>1159400</v>
       </c>
       <c r="D20" s="1">
+        <v>3.0024167979134212E-2</v>
+      </c>
+      <c r="E20" s="1">
         <v>1070170</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>1055166</v>
       </c>
-      <c r="F20" s="1">
-        <v>305</v>
-      </c>
       <c r="G20" s="1">
-        <v>290</v>
+        <v>2.7324893246395664E-2</v>
       </c>
       <c r="H20" s="1">
+        <v>305000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>290000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7.509926439493636E-3</v>
+      </c>
+      <c r="K20" s="1">
         <v>41373539</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>38615558</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>37834</v>
       </c>
       <c r="B21" s="1">
-        <v>10510</v>
+        <v>1051000</v>
       </c>
       <c r="C21" s="1">
-        <v>10291</v>
+        <v>1029100</v>
       </c>
       <c r="D21" s="1">
+        <v>2.6867669872546313E-2</v>
+      </c>
+      <c r="E21" s="1">
         <v>838152</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>826165</v>
       </c>
-      <c r="F21" s="1">
-        <v>392</v>
-      </c>
       <c r="G21" s="1">
-        <v>376</v>
+        <v>2.1569457273590734E-2</v>
       </c>
       <c r="H21" s="1">
+        <v>392000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>376000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9.8165813546568972E-3</v>
+      </c>
+      <c r="K21" s="1">
         <v>41102911</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="1">
         <v>38302540</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>37865</v>
       </c>
       <c r="B22" s="1">
-        <v>10417</v>
+        <v>1041700</v>
       </c>
       <c r="C22" s="1">
-        <v>10280</v>
+        <v>1028000</v>
       </c>
       <c r="D22" s="1">
+        <v>2.5798230632869245E-2</v>
+      </c>
+      <c r="E22" s="1">
         <v>808467</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>796292</v>
       </c>
-      <c r="F22" s="1">
-        <v>269</v>
-      </c>
       <c r="G22" s="1">
-        <v>252</v>
+        <v>1.9983389753996807E-2</v>
       </c>
       <c r="H22" s="1">
+        <v>269000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>252000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6.3240798827656122E-3</v>
+      </c>
+      <c r="K22" s="1">
         <v>42660841</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="1">
         <v>39847694</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>37895</v>
       </c>
       <c r="B23" s="1">
-        <v>16191</v>
+        <v>1619100</v>
       </c>
       <c r="C23" s="1">
-        <v>15069</v>
+        <v>1506900</v>
       </c>
       <c r="D23" s="1">
+        <v>3.3804021070073922E-2</v>
+      </c>
+      <c r="E23" s="1">
         <v>1223068</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>1205982</v>
       </c>
-      <c r="F23" s="1">
-        <v>299</v>
-      </c>
       <c r="G23" s="1">
-        <v>293</v>
+        <v>2.7053580820313155E-2</v>
       </c>
       <c r="H23" s="1">
+        <v>299000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>293000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6.5728171567666464E-3</v>
+      </c>
+      <c r="K23" s="1">
         <v>47685698</v>
       </c>
-      <c r="I23" s="1">
+      <c r="L23" s="1">
         <v>44577537</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>37926</v>
       </c>
       <c r="B24" s="1">
-        <v>17558</v>
+        <v>1755800</v>
       </c>
       <c r="C24" s="1">
-        <v>16987</v>
+        <v>1698700</v>
       </c>
       <c r="D24" s="1">
+        <v>3.9587359283332464E-2</v>
+      </c>
+      <c r="E24" s="1">
         <v>867566</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>852685</v>
       </c>
-      <c r="F24" s="1">
-        <v>118</v>
-      </c>
       <c r="G24" s="1">
-        <v>111</v>
+        <v>1.987140015924433E-2</v>
       </c>
       <c r="H24" s="1">
+        <v>118000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>111000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2.5867998354329215E-3</v>
+      </c>
+      <c r="K24" s="1">
         <v>45822024</v>
       </c>
-      <c r="I24" s="1">
+      <c r="L24" s="1">
         <v>42910162</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>37956</v>
       </c>
       <c r="B25" s="1">
-        <v>26422</v>
+        <v>2642200</v>
       </c>
       <c r="C25" s="1">
-        <v>25714</v>
+        <v>2571400</v>
       </c>
       <c r="D25" s="1">
+        <v>5.84456923395026E-2</v>
+      </c>
+      <c r="E25" s="1">
         <v>950008</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>933444</v>
       </c>
-      <c r="F25" s="1">
-        <v>199</v>
-      </c>
       <c r="G25" s="1">
-        <v>189</v>
+        <v>2.1216372730868269E-2</v>
       </c>
       <c r="H25" s="1">
+        <v>199000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>189000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.2958061181325316E-3</v>
+      </c>
+      <c r="K25" s="1">
         <v>46986635</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <v>43996399</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>37987</v>
       </c>
       <c r="B26" s="1">
-        <v>30411</v>
+        <v>3041100</v>
       </c>
       <c r="C26" s="1">
-        <v>29679</v>
+        <v>2967900</v>
       </c>
       <c r="D26" s="1">
+        <v>6.3315387751229815E-2</v>
+      </c>
+      <c r="E26" s="1">
         <v>1229611</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>1215118</v>
       </c>
-      <c r="F26" s="1">
-        <v>103</v>
-      </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>2.5922594202466009E-2</v>
       </c>
       <c r="H26" s="1">
+        <v>103000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.1333396593965367E-3</v>
+      </c>
+      <c r="K26" s="1">
         <v>50024492</v>
       </c>
-      <c r="I26" s="1">
+      <c r="L26" s="1">
         <v>46874861</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>38018</v>
       </c>
       <c r="B27" s="1">
-        <v>30102</v>
+        <v>3010200</v>
       </c>
       <c r="C27" s="1">
-        <v>29249</v>
+        <v>2924900</v>
       </c>
       <c r="D27" s="1">
+        <v>6.6512804971352923E-2</v>
+      </c>
+      <c r="E27" s="1">
         <v>1246026</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>1225787</v>
       </c>
-      <c r="F27" s="1">
-        <v>149</v>
-      </c>
       <c r="G27" s="1">
-        <v>140</v>
+        <v>2.7874639019255285E-2</v>
       </c>
       <c r="H27" s="1">
+        <v>149000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>140000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.1836277123968031E-3</v>
+      </c>
+      <c r="K27" s="1">
         <v>46959395</v>
       </c>
-      <c r="I27" s="1">
+      <c r="L27" s="1">
         <v>43974991</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>38047</v>
       </c>
       <c r="B28" s="1">
-        <v>26890</v>
+        <v>2689000</v>
       </c>
       <c r="C28" s="1">
-        <v>26485</v>
+        <v>2648500</v>
       </c>
       <c r="D28" s="1">
+        <v>5.7972600640795881E-2</v>
+      </c>
+      <c r="E28" s="1">
         <v>1285606</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>1269261</v>
       </c>
-      <c r="F28" s="1">
-        <v>256</v>
-      </c>
       <c r="G28" s="1">
-        <v>247</v>
+        <v>2.7782654733599102E-2</v>
       </c>
       <c r="H28" s="1">
+        <v>256000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>247000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.4065442168308789E-3</v>
+      </c>
+      <c r="K28" s="1">
         <v>48823042</v>
       </c>
-      <c r="I28" s="1">
+      <c r="L28" s="1">
         <v>45685375</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>38078</v>
       </c>
       <c r="B29" s="1">
-        <v>18550</v>
+        <v>1855000</v>
       </c>
       <c r="C29" s="1">
-        <v>18245</v>
+        <v>1824500</v>
       </c>
       <c r="D29" s="1">
+        <v>4.4925487096806681E-2</v>
+      </c>
+      <c r="E29" s="1">
         <v>1415022</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>1397775</v>
       </c>
-      <c r="F29" s="1">
-        <v>311</v>
-      </c>
       <c r="G29" s="1">
-        <v>303</v>
+        <v>3.4418044794047115E-2</v>
       </c>
       <c r="H29" s="1">
+        <v>311000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>303000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>7.4609057771073848E-3</v>
+      </c>
+      <c r="K29" s="1">
         <v>43391399</v>
       </c>
-      <c r="I29" s="1">
+      <c r="L29" s="1">
         <v>40611691</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>38108</v>
       </c>
       <c r="B30" s="1">
-        <v>15048</v>
+        <v>1504800</v>
       </c>
       <c r="C30" s="1">
-        <v>14734</v>
+        <v>1473400</v>
       </c>
       <c r="D30" s="1">
+        <v>3.8715877330316645E-2</v>
+      </c>
+      <c r="E30" s="1">
         <v>1473303</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>1455232</v>
       </c>
-      <c r="F30" s="1">
-        <v>307</v>
-      </c>
       <c r="G30" s="1">
-        <v>298</v>
+        <v>3.8238484864362259E-2</v>
       </c>
       <c r="H30" s="1">
+        <v>307000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>298000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>7.8304136313522201E-3</v>
+      </c>
+      <c r="K30" s="1">
         <v>40708394</v>
       </c>
-      <c r="I30" s="1">
+      <c r="L30" s="1">
         <v>38056738</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>38139</v>
       </c>
       <c r="B31" s="1">
-        <v>18982</v>
+        <v>1898200</v>
       </c>
       <c r="C31" s="1">
-        <v>18676</v>
+        <v>1867600</v>
       </c>
       <c r="D31" s="1">
+        <v>5.0608554590848426E-2</v>
+      </c>
+      <c r="E31" s="1">
         <v>1596962</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>1579727</v>
       </c>
-      <c r="F31" s="1">
-        <v>342</v>
-      </c>
       <c r="G31" s="1">
-        <v>338</v>
+        <v>4.2807721202686451E-2</v>
       </c>
       <c r="H31" s="1">
+        <v>342000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>338000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>9.1591836858571259E-3</v>
+      </c>
+      <c r="K31" s="1">
         <v>39478151</v>
       </c>
-      <c r="I31" s="1">
+      <c r="L31" s="1">
         <v>36902852</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38169</v>
       </c>
       <c r="B32" s="1">
-        <v>14612</v>
+        <v>1461200</v>
       </c>
       <c r="C32" s="1">
-        <v>14397</v>
+        <v>1439700</v>
       </c>
       <c r="D32" s="1">
+        <v>3.8414101937690869E-2</v>
+      </c>
+      <c r="E32" s="1">
         <v>1532912</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>1512707</v>
       </c>
-      <c r="F32" s="1">
-        <v>340</v>
-      </c>
       <c r="G32" s="1">
-        <v>335</v>
+        <v>4.036207605741373E-2</v>
       </c>
       <c r="H32" s="1">
+        <v>340000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>335000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>8.9384761749853724E-3</v>
+      </c>
+      <c r="K32" s="1">
         <v>40107543</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L32" s="1">
         <v>37478424</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>38200</v>
       </c>
       <c r="B33" s="1">
-        <v>19848</v>
+        <v>1984800</v>
       </c>
       <c r="C33" s="1">
-        <v>19559</v>
+        <v>1955900</v>
       </c>
       <c r="D33" s="1">
+        <v>5.268924886369529E-2</v>
+      </c>
+      <c r="E33" s="1">
         <v>1325230</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>1307805</v>
       </c>
-      <c r="F33" s="1">
-        <v>333</v>
-      </c>
       <c r="G33" s="1">
-        <v>327</v>
+        <v>3.5230463270200428E-2</v>
       </c>
       <c r="H33" s="1">
+        <v>333000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>327000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8.8089290753250987E-3</v>
+      </c>
+      <c r="K33" s="1">
         <v>39802571</v>
       </c>
-      <c r="I33" s="1">
+      <c r="L33" s="1">
         <v>37121425</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38231</v>
       </c>
       <c r="B34" s="1">
-        <v>28989</v>
+        <v>2898900</v>
       </c>
       <c r="C34" s="1">
-        <v>28479</v>
+        <v>2847900</v>
       </c>
       <c r="D34" s="1">
+        <v>7.4073228274837657E-2</v>
+      </c>
+      <c r="E34" s="1">
         <v>1147271</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>1130806</v>
       </c>
-      <c r="F34" s="1">
-        <v>287</v>
-      </c>
       <c r="G34" s="1">
-        <v>281</v>
+        <v>2.9412005678765434E-2</v>
       </c>
       <c r="H34" s="1">
+        <v>287000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>281000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.3087457934721666E-3</v>
+      </c>
+      <c r="K34" s="1">
         <v>41171304</v>
       </c>
-      <c r="I34" s="1">
+      <c r="L34" s="1">
         <v>38447089</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38261</v>
       </c>
       <c r="B35" s="1">
-        <v>30339</v>
+        <v>3033900</v>
       </c>
       <c r="C35" s="1">
-        <v>29900</v>
+        <v>2990000</v>
       </c>
       <c r="D35" s="1">
+        <v>7.0957133656446958E-2</v>
+      </c>
+      <c r="E35" s="1">
         <v>1260712</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>1242109</v>
       </c>
-      <c r="F35" s="1">
-        <v>234</v>
-      </c>
       <c r="G35" s="1">
-        <v>228</v>
+        <v>2.9477088404306247E-2</v>
       </c>
       <c r="H35" s="1">
+        <v>234000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>228000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5.4107780848394339E-3</v>
+      </c>
+      <c r="K35" s="1">
         <v>45059909</v>
       </c>
-      <c r="I35" s="1">
+      <c r="L35" s="1">
         <v>42138117</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38292</v>
       </c>
       <c r="B36" s="1">
-        <v>28720</v>
+        <v>2872000</v>
       </c>
       <c r="C36" s="1">
-        <v>28352</v>
+        <v>2835200</v>
       </c>
       <c r="D36" s="1">
+        <v>6.3616995529869422E-2</v>
+      </c>
+      <c r="E36" s="1">
         <v>1141865</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>1125798</v>
       </c>
-      <c r="F36" s="1">
-        <v>138</v>
-      </c>
       <c r="G36" s="1">
-        <v>137</v>
+        <v>2.5260964423510134E-2</v>
       </c>
       <c r="H36" s="1">
+        <v>138000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>137000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3.0740435904317545E-3</v>
+      </c>
+      <c r="K36" s="1">
         <v>47593071</v>
       </c>
-      <c r="I36" s="1">
+      <c r="L36" s="1">
         <v>44566707</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38322</v>
       </c>
       <c r="B37" s="1">
-        <v>32129</v>
+        <v>3212900</v>
       </c>
       <c r="C37" s="1">
-        <v>29803</v>
+        <v>2980300</v>
       </c>
       <c r="D37" s="1">
+        <v>6.3466415824937547E-2</v>
+      </c>
+      <c r="E37" s="1">
         <v>1049723</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>1033828</v>
       </c>
-      <c r="F37" s="1">
-        <v>311</v>
-      </c>
       <c r="G37" s="1">
-        <v>299</v>
+        <v>2.2015688937175298E-2</v>
       </c>
       <c r="H37" s="1">
+        <v>311000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>299000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6.36729803431075E-3</v>
+      </c>
+      <c r="K37" s="1">
         <v>50153888</v>
       </c>
-      <c r="I37" s="1">
+      <c r="L37" s="1">
         <v>46958694</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38353</v>
       </c>
       <c r="B38" s="1">
-        <v>52315</v>
+        <v>5231500</v>
       </c>
       <c r="C38" s="1">
-        <v>51059</v>
+        <v>5105900</v>
       </c>
       <c r="D38" s="1">
+        <v>0.11227188005979595</v>
+      </c>
+      <c r="E38" s="1">
         <v>1198617</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>1177468</v>
       </c>
-      <c r="F38" s="1">
-        <v>194</v>
-      </c>
       <c r="G38" s="1">
-        <v>183</v>
+        <v>2.589093912341562E-2</v>
       </c>
       <c r="H38" s="1">
+        <v>194000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>183000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.0239240977971878E-3</v>
+      </c>
+      <c r="K38" s="1">
         <v>48679911</v>
       </c>
-      <c r="I38" s="1">
+      <c r="L38" s="1">
         <v>45477995</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38384</v>
       </c>
       <c r="B39" s="1">
-        <v>28173</v>
+        <v>2817300</v>
       </c>
       <c r="C39" s="1">
-        <v>27806</v>
+        <v>2780600</v>
       </c>
       <c r="D39" s="1">
+        <v>6.2515338808135604E-2</v>
+      </c>
+      <c r="E39" s="1">
         <v>1108256</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>1097325</v>
       </c>
-      <c r="F39" s="1">
-        <v>197</v>
-      </c>
       <c r="G39" s="1">
-        <v>188</v>
+        <v>2.4670806357490253E-2</v>
       </c>
       <c r="H39" s="1">
+        <v>197000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>188000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4.2267437588756002E-3</v>
+      </c>
+      <c r="K39" s="1">
         <v>47542156</v>
       </c>
-      <c r="I39" s="1">
+      <c r="L39" s="1">
         <v>44478684</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38412</v>
       </c>
       <c r="B40" s="1">
-        <v>29589</v>
+        <v>2958900</v>
       </c>
       <c r="C40" s="1">
-        <v>29401</v>
+        <v>2940100</v>
       </c>
       <c r="D40" s="1">
+        <v>6.4231107373696611E-2</v>
+      </c>
+      <c r="E40" s="1">
         <v>1392540</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>1363863</v>
       </c>
-      <c r="F40" s="1">
-        <v>304</v>
-      </c>
       <c r="G40" s="1">
-        <v>295</v>
+        <v>2.9795731708449364E-2</v>
       </c>
       <c r="H40" s="1">
+        <v>304000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>295000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.4447388439986732E-3</v>
+      </c>
+      <c r="K40" s="1">
         <v>48911098</v>
       </c>
-      <c r="I40" s="1">
+      <c r="L40" s="1">
         <v>45773771</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38443</v>
       </c>
       <c r="B41" s="1">
-        <v>19215</v>
+        <v>1921500</v>
       </c>
       <c r="C41" s="1">
-        <v>19036</v>
+        <v>1903600</v>
       </c>
       <c r="D41" s="1">
+        <v>4.5653550991762E-2</v>
+      </c>
+      <c r="E41" s="1">
         <v>1589935</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>1562184</v>
       </c>
-      <c r="F41" s="1">
-        <v>416</v>
-      </c>
       <c r="G41" s="1">
-        <v>410</v>
+        <v>3.7465458553537889E-2</v>
       </c>
       <c r="H41" s="1">
+        <v>416000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>410000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9.8329249351872348E-3</v>
+      </c>
+      <c r="K41" s="1">
         <v>44571359</v>
       </c>
-      <c r="I41" s="1">
+      <c r="L41" s="1">
         <v>41696647</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>38473</v>
       </c>
       <c r="B42" s="1">
-        <v>19431</v>
+        <v>1943100</v>
       </c>
       <c r="C42" s="1">
-        <v>19347</v>
+        <v>1934700</v>
       </c>
       <c r="D42" s="1">
+        <v>5.1317726594208239E-2</v>
+      </c>
+      <c r="E42" s="1">
         <v>1747816</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>1723590</v>
       </c>
-      <c r="F42" s="1">
-        <v>463</v>
-      </c>
       <c r="G42" s="1">
-        <v>457</v>
+        <v>4.5718054675407752E-2</v>
       </c>
       <c r="H42" s="1">
+        <v>463000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>457000</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.2121879905697609E-2</v>
+      </c>
+      <c r="K42" s="1">
         <v>40339315</v>
       </c>
-      <c r="I42" s="1">
+      <c r="L42" s="1">
         <v>37700423</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>38504</v>
       </c>
       <c r="B43" s="1">
-        <v>14461</v>
+        <v>1446100</v>
       </c>
       <c r="C43" s="1">
-        <v>14367</v>
+        <v>1436700</v>
       </c>
       <c r="D43" s="1">
+        <v>3.8787938346967518E-2</v>
+      </c>
+      <c r="E43" s="1">
         <v>1382987</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>1357713</v>
       </c>
-      <c r="F43" s="1">
-        <v>521</v>
-      </c>
       <c r="G43" s="1">
-        <v>516</v>
+        <v>3.6655452172949334E-2</v>
       </c>
       <c r="H43" s="1">
+        <v>521000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>516000</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.3930936303358557E-2</v>
+      </c>
+      <c r="K43" s="1">
         <v>39723733</v>
       </c>
-      <c r="I43" s="1">
+      <c r="L43" s="1">
         <v>37039865</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>38534</v>
       </c>
       <c r="B44" s="1">
-        <v>19912</v>
+        <v>1991200</v>
       </c>
       <c r="C44" s="1">
-        <v>19535</v>
+        <v>1953500</v>
       </c>
       <c r="D44" s="1">
+        <v>5.1236215661375484E-2</v>
+      </c>
+      <c r="E44" s="1">
         <v>1435361</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>1407032</v>
       </c>
-      <c r="F44" s="1">
-        <v>458</v>
-      </c>
       <c r="G44" s="1">
-        <v>453</v>
+        <v>3.690350396440055E-2</v>
       </c>
       <c r="H44" s="1">
+        <v>458000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>453000</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.1881241717227077E-2</v>
+      </c>
+      <c r="K44" s="1">
         <v>40872287</v>
       </c>
-      <c r="I44" s="1">
+      <c r="L44" s="1">
         <v>38127328</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>38565</v>
       </c>
       <c r="B45" s="1">
-        <v>19729</v>
+        <v>1972900</v>
       </c>
       <c r="C45" s="1">
-        <v>19621</v>
+        <v>1962100</v>
       </c>
       <c r="D45" s="1">
+        <v>5.3673543888674381E-2</v>
+      </c>
+      <c r="E45" s="1">
         <v>1377389</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>1350417</v>
       </c>
-      <c r="F45" s="1">
-        <v>431</v>
-      </c>
       <c r="G45" s="1">
-        <v>425</v>
+        <v>3.694086240125987E-2</v>
       </c>
       <c r="H45" s="1">
+        <v>431000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>425000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.1625939632376847E-2</v>
+      </c>
+      <c r="K45" s="1">
         <v>39137219</v>
       </c>
-      <c r="I45" s="1">
+      <c r="L45" s="1">
         <v>36556185</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>38596</v>
       </c>
       <c r="B46" s="1">
-        <v>16363</v>
+        <v>1636300</v>
       </c>
       <c r="C46" s="1">
-        <v>16000</v>
+        <v>1600000</v>
       </c>
       <c r="D46" s="1">
+        <v>4.2036706820216596E-2</v>
+      </c>
+      <c r="E46" s="1">
         <v>1214161</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>1191502</v>
       </c>
-      <c r="F46" s="1">
-        <v>394</v>
-      </c>
       <c r="G46" s="1">
-        <v>388</v>
+        <v>3.1304262656063571E-2</v>
       </c>
       <c r="H46" s="1">
+        <v>394000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>388000</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.0193901403902524E-2</v>
+      </c>
+      <c r="K46" s="1">
         <v>40780549</v>
       </c>
-      <c r="I46" s="1">
+      <c r="L46" s="1">
         <v>38061973</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>38626</v>
       </c>
       <c r="B47" s="1">
-        <v>29525</v>
+        <v>2952500</v>
       </c>
       <c r="C47" s="1">
-        <v>29354</v>
+        <v>2935400</v>
       </c>
       <c r="D47" s="1">
+        <v>7.092694172228417E-2</v>
+      </c>
+      <c r="E47" s="1">
         <v>1076378</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>1056337</v>
       </c>
-      <c r="F47" s="1">
-        <v>337</v>
-      </c>
       <c r="G47" s="1">
-        <v>330</v>
+        <v>2.5523864835488349E-2</v>
       </c>
       <c r="H47" s="1">
+        <v>337000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>330000</v>
+      </c>
+      <c r="J47" s="1">
+        <v>7.973663135638678E-3</v>
+      </c>
+      <c r="K47" s="1">
         <v>44283717</v>
       </c>
-      <c r="I47" s="1">
+      <c r="L47" s="1">
         <v>41386248</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>38657</v>
       </c>
       <c r="B48" s="1">
-        <v>28112</v>
+        <v>2811200</v>
       </c>
       <c r="C48" s="1">
-        <v>27725</v>
+        <v>2772500</v>
       </c>
       <c r="D48" s="1">
+        <v>6.2466305370718879E-2</v>
+      </c>
+      <c r="E48" s="1">
         <v>783577</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>767565</v>
       </c>
-      <c r="F48" s="1">
-        <v>249</v>
-      </c>
       <c r="G48" s="1">
-        <v>240</v>
+        <v>1.729376002953141E-2</v>
       </c>
       <c r="H48" s="1">
+        <v>249000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>240000</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5.40736277329938E-3</v>
+      </c>
+      <c r="K48" s="1">
         <v>47471443</v>
       </c>
-      <c r="I48" s="1">
+      <c r="L48" s="1">
         <v>44383928</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>38687</v>
       </c>
       <c r="B49" s="1">
-        <v>35506</v>
+        <v>3550600</v>
       </c>
       <c r="C49" s="1">
-        <v>34964</v>
+        <v>3496400</v>
       </c>
       <c r="D49" s="1">
+        <v>7.4660800399910618E-2</v>
+      </c>
+      <c r="E49" s="1">
         <v>976501</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>964204</v>
       </c>
-      <c r="F49" s="1">
-        <v>890</v>
-      </c>
       <c r="G49" s="1">
-        <v>874</v>
+        <v>2.0589246764899729E-2</v>
       </c>
       <c r="H49" s="1">
+        <v>890000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>874000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.8663064737879497E-2</v>
+      </c>
+      <c r="K49" s="1">
         <v>50072784</v>
       </c>
-      <c r="I49" s="1">
+      <c r="L49" s="1">
         <v>46830465</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>38718</v>
       </c>
       <c r="B50" s="1">
-        <v>24721</v>
+        <v>2472100</v>
       </c>
       <c r="C50" s="1">
-        <v>24653</v>
+        <v>2465300</v>
       </c>
       <c r="D50" s="1">
+        <v>4.8948763116002054E-2</v>
+      </c>
+      <c r="E50" s="1">
         <v>1021858</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>1010591</v>
       </c>
-      <c r="F50" s="1">
-        <v>674</v>
-      </c>
       <c r="G50" s="1">
-        <v>663</v>
+        <v>2.0065379250461864E-2</v>
       </c>
       <c r="H50" s="1">
+        <v>674000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>663000</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.3163927289136967E-2</v>
+      </c>
+      <c r="K50" s="1">
         <v>53767703</v>
       </c>
-      <c r="I50" s="1">
+      <c r="L50" s="1">
         <v>50364909</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>38749</v>
       </c>
       <c r="B51" s="1">
-        <v>25403</v>
+        <v>2540300</v>
       </c>
       <c r="C51" s="1">
-        <v>25324</v>
+        <v>2532400</v>
       </c>
       <c r="D51" s="1">
+        <v>5.5981388288469859E-2</v>
+      </c>
+      <c r="E51" s="1">
         <v>928369</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>914204</v>
       </c>
-      <c r="F51" s="1">
-        <v>207</v>
-      </c>
       <c r="G51" s="1">
-        <v>198</v>
+        <v>2.0209449178199453E-2</v>
       </c>
       <c r="H51" s="1">
+        <v>207000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>198000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4.3770000320316818E-3</v>
+      </c>
+      <c r="K51" s="1">
         <v>48333850</v>
       </c>
-      <c r="I51" s="1">
+      <c r="L51" s="1">
         <v>45236463</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>38777</v>
       </c>
       <c r="B52" s="1">
-        <v>30653</v>
+        <v>3065300</v>
       </c>
       <c r="C52" s="1">
-        <v>30544</v>
+        <v>3054400</v>
       </c>
       <c r="D52" s="1">
+        <v>6.3881748158003751E-2</v>
+      </c>
+      <c r="E52" s="1">
         <v>1369778</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>1341662</v>
       </c>
-      <c r="F52" s="1">
-        <v>298</v>
-      </c>
       <c r="G52" s="1">
-        <v>289</v>
+        <v>2.806040924474975E-2</v>
       </c>
       <c r="H52" s="1">
+        <v>298000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>289000</v>
+      </c>
+      <c r="J52" s="1">
+        <v>6.0443377480562752E-3</v>
+      </c>
+      <c r="K52" s="1">
         <v>51061900</v>
       </c>
-      <c r="I52" s="1">
+      <c r="L52" s="1">
         <v>47813344</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>38808</v>
       </c>
       <c r="B53" s="1">
-        <v>25869</v>
+        <v>2586900</v>
       </c>
       <c r="C53" s="1">
-        <v>25790</v>
+        <v>2579000</v>
       </c>
       <c r="D53" s="1">
+        <v>6.4156630739533899E-2</v>
+      </c>
+      <c r="E53" s="1">
         <v>1586451</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>1543004</v>
       </c>
-      <c r="F53" s="1">
-        <v>382</v>
-      </c>
       <c r="G53" s="1">
-        <v>374</v>
+        <v>3.8384621115790531E-2</v>
       </c>
       <c r="H53" s="1">
+        <v>382000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>374000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>9.3038309021270579E-3</v>
+      </c>
+      <c r="K53" s="1">
         <v>42982766</v>
       </c>
-      <c r="I53" s="1">
+      <c r="L53" s="1">
         <v>40198495</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38838</v>
       </c>
       <c r="B54" s="1">
-        <v>34915</v>
+        <v>3491500</v>
       </c>
       <c r="C54" s="1">
-        <v>34825</v>
+        <v>3482500</v>
       </c>
       <c r="D54" s="1">
+        <v>9.2802907357195985E-2</v>
+      </c>
+      <c r="E54" s="1">
         <v>1724102</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>1707363</v>
       </c>
-      <c r="F54" s="1">
-        <v>381</v>
-      </c>
       <c r="G54" s="1">
-        <v>380</v>
+        <v>4.5498420764997619E-2</v>
       </c>
       <c r="H54" s="1">
+        <v>381000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>380000</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1.0126376107892167E-2</v>
+      </c>
+      <c r="K54" s="1">
         <v>40170670</v>
       </c>
-      <c r="I54" s="1">
+      <c r="L54" s="1">
         <v>37525764</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>38869</v>
       </c>
       <c r="B55" s="1">
-        <v>15347</v>
+        <v>1534700</v>
       </c>
       <c r="C55" s="1">
-        <v>15297</v>
+        <v>1529700</v>
       </c>
       <c r="D55" s="1">
+        <v>4.0108282136082626E-2</v>
+      </c>
+      <c r="E55" s="1">
         <v>1535318</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>1509801</v>
       </c>
-      <c r="F55" s="1">
-        <v>502</v>
-      </c>
       <c r="G55" s="1">
-        <v>502</v>
+        <v>3.9586536234124135E-2</v>
       </c>
       <c r="H55" s="1">
+        <v>502000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>502000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1.3162291712305339E-2</v>
+      </c>
+      <c r="K55" s="1">
         <v>40859312</v>
       </c>
-      <c r="I55" s="1">
+      <c r="L55" s="1">
         <v>38139255</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>38899</v>
       </c>
       <c r="B56" s="1">
-        <v>13489</v>
+        <v>1348900</v>
       </c>
       <c r="C56" s="1">
-        <v>13449</v>
+        <v>1344900</v>
       </c>
       <c r="D56" s="1">
+        <v>3.4071488970935641E-2</v>
+      </c>
+      <c r="E56" s="1">
         <v>1359779</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>1340282</v>
       </c>
-      <c r="F56" s="1">
-        <v>566</v>
-      </c>
       <c r="G56" s="1">
-        <v>566</v>
+        <v>3.3954497271874169E-2</v>
       </c>
       <c r="H56" s="1">
+        <v>566000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>566000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1.4338956619488122E-2</v>
+      </c>
+      <c r="K56" s="1">
         <v>42378443</v>
       </c>
-      <c r="I56" s="1">
+      <c r="L56" s="1">
         <v>39472886</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>38930</v>
       </c>
       <c r="B57" s="1">
-        <v>21655</v>
+        <v>2165500</v>
       </c>
       <c r="C57" s="1">
-        <v>21590</v>
+        <v>2159000</v>
       </c>
       <c r="D57" s="1">
+        <v>5.7267792100355028E-2</v>
+      </c>
+      <c r="E57" s="1">
         <v>1457482</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>1424450</v>
       </c>
-      <c r="F57" s="1">
-        <v>420</v>
-      </c>
       <c r="G57" s="1">
-        <v>419</v>
+        <v>3.7783745464266195E-2</v>
       </c>
       <c r="H57" s="1">
+        <v>420000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>419000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1.1114036540087429E-2</v>
+      </c>
+      <c r="K57" s="1">
         <v>40411982</v>
       </c>
-      <c r="I57" s="1">
+      <c r="L57" s="1">
         <v>37700074</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>38961</v>
       </c>
       <c r="B58" s="1">
-        <v>21826</v>
+        <v>2182600</v>
       </c>
       <c r="C58" s="1">
-        <v>21763</v>
+        <v>2176300</v>
       </c>
       <c r="D58" s="1">
+        <v>5.6419514385679943E-2</v>
+      </c>
+      <c r="E58" s="1">
         <v>1266804</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>1234446</v>
       </c>
-      <c r="F58" s="1">
-        <v>446</v>
-      </c>
       <c r="G58" s="1">
-        <v>445</v>
+        <v>3.2002409527797204E-2</v>
       </c>
       <c r="H58" s="1">
+        <v>446000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>445000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1.1536407619182822E-2</v>
+      </c>
+      <c r="K58" s="1">
         <v>41286968</v>
       </c>
-      <c r="I58" s="1">
+      <c r="L58" s="1">
         <v>38573533</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>38991</v>
       </c>
       <c r="B59" s="1">
-        <v>35226</v>
+        <v>3522600</v>
       </c>
       <c r="C59" s="1">
-        <v>35141</v>
+        <v>3514100</v>
       </c>
       <c r="D59" s="1">
+        <v>8.4042729609133032E-2</v>
+      </c>
+      <c r="E59" s="1">
         <v>1100307</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>1076842</v>
       </c>
-      <c r="F59" s="1">
-        <v>379</v>
-      </c>
       <c r="G59" s="1">
-        <v>377</v>
+        <v>2.5753604347559269E-2</v>
       </c>
       <c r="H59" s="1">
+        <v>379000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>377000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>9.0162798618830288E-3</v>
+      </c>
+      <c r="K59" s="1">
         <v>44745902</v>
       </c>
-      <c r="I59" s="1">
+      <c r="L59" s="1">
         <v>41813254</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>39022</v>
       </c>
       <c r="B60" s="1">
-        <v>44282</v>
+        <v>4428200</v>
       </c>
       <c r="C60" s="1">
-        <v>44158</v>
+        <v>4415800</v>
       </c>
       <c r="D60" s="1">
+        <v>0.10253563344302852</v>
+      </c>
+      <c r="E60" s="1">
         <v>955251</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>939904</v>
       </c>
-      <c r="F60" s="1">
-        <v>468</v>
-      </c>
       <c r="G60" s="1">
-        <v>466</v>
+        <v>2.1824732101915004E-2</v>
       </c>
       <c r="H60" s="1">
+        <v>468000</v>
+      </c>
+      <c r="I60" s="1">
+        <v>466000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1.0820599933070177E-2</v>
+      </c>
+      <c r="K60" s="1">
         <v>46054887</v>
       </c>
-      <c r="I60" s="1">
+      <c r="L60" s="1">
         <v>43066004</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>39052</v>
       </c>
       <c r="B61" s="1">
-        <v>47772</v>
+        <v>4777200</v>
       </c>
       <c r="C61" s="1">
-        <v>47645</v>
+        <v>4764500</v>
       </c>
       <c r="D61" s="1">
+        <v>0.10582133267892684</v>
+      </c>
+      <c r="E61" s="1">
         <v>1280640</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>1253429</v>
       </c>
-      <c r="F61" s="1">
-        <v>511</v>
-      </c>
       <c r="G61" s="1">
-        <v>510</v>
+        <v>2.7839128386696315E-2</v>
       </c>
       <c r="H61" s="1">
+        <v>511000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>510000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.1327291356123977E-2</v>
+      </c>
+      <c r="K61" s="1">
         <v>48127055</v>
       </c>
-      <c r="I61" s="1">
+      <c r="L61" s="1">
         <v>45024003</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>39083</v>
       </c>
       <c r="B62" s="1">
-        <v>69088</v>
+        <v>6908800</v>
       </c>
       <c r="C62" s="1">
-        <v>68900</v>
+        <v>6890000</v>
       </c>
       <c r="D62" s="1">
+        <v>0.15807536248642221</v>
+      </c>
+      <c r="E62" s="1">
         <v>1271751</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>1254063</v>
       </c>
-      <c r="F62" s="1">
-        <v>1056</v>
-      </c>
       <c r="G62" s="1">
-        <v>1056</v>
+        <v>2.8771620218550086E-2</v>
       </c>
       <c r="H62" s="1">
+        <v>1056000</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1056000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2.4227515643782564E-2</v>
+      </c>
+      <c r="K62" s="1">
         <v>46592471</v>
       </c>
-      <c r="I62" s="1">
+      <c r="L62" s="1">
         <v>43586805</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>39114</v>
       </c>
       <c r="B63" s="1">
-        <v>33915</v>
+        <v>3391500</v>
       </c>
       <c r="C63" s="1">
-        <v>33841</v>
+        <v>3384100</v>
       </c>
       <c r="D63" s="1">
+        <v>8.185959969564803E-2</v>
+      </c>
+      <c r="E63" s="1">
         <v>1133949</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>1114658</v>
       </c>
-      <c r="F63" s="1">
-        <v>262</v>
-      </c>
       <c r="G63" s="1">
-        <v>262</v>
+        <v>2.6962990951080536E-2</v>
       </c>
       <c r="H63" s="1">
+        <v>262000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>262000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>6.3376422446912873E-3</v>
+      </c>
+      <c r="K63" s="1">
         <v>44173707</v>
       </c>
-      <c r="I63" s="1">
+      <c r="L63" s="1">
         <v>41340295</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>39142</v>
       </c>
       <c r="B64" s="1">
-        <v>46980</v>
+        <v>4698000</v>
       </c>
       <c r="C64" s="1">
-        <v>46865</v>
+        <v>4686500</v>
       </c>
       <c r="D64" s="1">
+        <v>0.1063319574577784</v>
+      </c>
+      <c r="E64" s="1">
         <v>1363255</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>1336708</v>
       </c>
-      <c r="F64" s="1">
-        <v>381</v>
-      </c>
       <c r="G64" s="1">
-        <v>381</v>
+        <v>3.0328556105723256E-2</v>
       </c>
       <c r="H64" s="1">
+        <v>381000</v>
+      </c>
+      <c r="I64" s="1">
+        <v>381000</v>
+      </c>
+      <c r="J64" s="1">
+        <v>8.6445056633764148E-3</v>
+      </c>
+      <c r="K64" s="1">
         <v>47133384</v>
       </c>
-      <c r="I64" s="1">
+      <c r="L64" s="1">
         <v>44074238</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>39173</v>
       </c>
       <c r="B65" s="1">
-        <v>25427</v>
+        <v>2542700</v>
       </c>
       <c r="C65" s="1">
-        <v>25360</v>
+        <v>2536000</v>
       </c>
       <c r="D65" s="1">
+        <v>6.5767738896059982E-2</v>
+      </c>
+      <c r="E65" s="1">
         <v>1093164</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>1075438</v>
       </c>
-      <c r="F65" s="1">
-        <v>470</v>
-      </c>
       <c r="G65" s="1">
-        <v>470</v>
+        <v>2.7890033747200688E-2</v>
       </c>
       <c r="H65" s="1">
+        <v>470000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>470000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1.2188815962597866E-2</v>
+      </c>
+      <c r="K65" s="1">
         <v>41282124</v>
       </c>
-      <c r="I65" s="1">
+      <c r="L65" s="1">
         <v>38559939</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>39203</v>
       </c>
       <c r="B66" s="1">
-        <v>33290</v>
+        <v>3329000</v>
       </c>
       <c r="C66" s="1">
-        <v>33230</v>
+        <v>3323000</v>
       </c>
       <c r="D66" s="1">
+        <v>8.6513716941176974E-2</v>
+      </c>
+      <c r="E66" s="1">
         <v>1343386</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>1322070</v>
       </c>
-      <c r="F66" s="1">
-        <v>458</v>
-      </c>
       <c r="G66" s="1">
-        <v>458</v>
+        <v>3.4419858488240099E-2</v>
       </c>
       <c r="H66" s="1">
+        <v>458000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>458000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.1923948949461045E-2</v>
+      </c>
+      <c r="K66" s="1">
         <v>41141351</v>
       </c>
-      <c r="I66" s="1">
+      <c r="L66" s="1">
         <v>38410094</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>39234</v>
       </c>
       <c r="B67" s="1">
-        <v>22566</v>
+        <v>2256600</v>
       </c>
       <c r="C67" s="1">
-        <v>22511</v>
+        <v>2251100</v>
       </c>
       <c r="D67" s="1">
+        <v>5.9728852607175961E-2</v>
+      </c>
+      <c r="E67" s="1">
         <v>1569625</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>1512115</v>
       </c>
-      <c r="F67" s="1">
-        <v>469</v>
-      </c>
       <c r="G67" s="1">
-        <v>469</v>
+        <v>4.0121226937985817E-2</v>
       </c>
       <c r="H67" s="1">
+        <v>469000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>469000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1.244406373451447E-2</v>
+      </c>
+      <c r="K67" s="1">
         <v>40387162</v>
       </c>
-      <c r="I67" s="1">
+      <c r="L67" s="1">
         <v>37688653</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>39264</v>
       </c>
       <c r="B68" s="1">
-        <v>30026</v>
+        <v>3002600</v>
       </c>
       <c r="C68" s="1">
-        <v>29936</v>
+        <v>2993600</v>
       </c>
       <c r="D68" s="1">
+        <v>8.087536451458302E-2</v>
+      </c>
+      <c r="E68" s="1">
         <v>1638992</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>1612376</v>
       </c>
-      <c r="F68" s="1">
-        <v>510</v>
-      </c>
       <c r="G68" s="1">
-        <v>508</v>
+        <v>4.3560093778248696E-2</v>
       </c>
       <c r="H68" s="1">
+        <v>510000</v>
+      </c>
+      <c r="I68" s="1">
+        <v>508000</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.3724173294163606E-2</v>
+      </c>
+      <c r="K68" s="1">
         <v>39679400</v>
       </c>
-      <c r="I68" s="1">
+      <c r="L68" s="1">
         <v>37014980</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>39295</v>
       </c>
       <c r="B69" s="1">
-        <v>24562</v>
+        <v>2456200</v>
       </c>
       <c r="C69" s="1">
-        <v>24495</v>
+        <v>2449500</v>
       </c>
       <c r="D69" s="1">
+        <v>6.5565445556750604E-2</v>
+      </c>
+      <c r="E69" s="1">
         <v>1520778</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>1486885</v>
       </c>
-      <c r="F69" s="1">
-        <v>462</v>
-      </c>
       <c r="G69" s="1">
-        <v>458</v>
+        <v>3.9799255977403192E-2</v>
       </c>
       <c r="H69" s="1">
+        <v>462000</v>
+      </c>
+      <c r="I69" s="1">
+        <v>458000</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1.2259225991015218E-2</v>
+      </c>
+      <c r="K69" s="1">
         <v>40097192</v>
       </c>
-      <c r="I69" s="1">
+      <c r="L69" s="1">
         <v>37359618</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>39326</v>
       </c>
       <c r="B70" s="1">
-        <v>34845</v>
+        <v>3484500</v>
       </c>
       <c r="C70" s="1">
-        <v>34746</v>
+        <v>3474600</v>
       </c>
       <c r="D70" s="1">
+        <v>9.197016742509101E-2</v>
+      </c>
+      <c r="E70" s="1">
         <v>1562173</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>1538330</v>
       </c>
-      <c r="F70" s="1">
-        <v>387</v>
-      </c>
       <c r="G70" s="1">
-        <v>386</v>
+        <v>4.0718490662246087E-2</v>
       </c>
       <c r="H70" s="1">
+        <v>387000</v>
+      </c>
+      <c r="I70" s="1">
+        <v>386000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.0217142872873173E-2</v>
+      </c>
+      <c r="K70" s="1">
         <v>40458376</v>
       </c>
-      <c r="I70" s="1">
+      <c r="L70" s="1">
         <v>37779642</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>39356</v>
       </c>
       <c r="B71" s="1">
-        <v>23410</v>
+        <v>2341000</v>
       </c>
       <c r="C71" s="1">
-        <v>23366</v>
+        <v>2336600</v>
       </c>
       <c r="D71" s="1">
+        <v>5.4307435400508385E-2</v>
+      </c>
+      <c r="E71" s="1">
         <v>1161205</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>1123734</v>
       </c>
-      <c r="F71" s="1">
-        <v>346</v>
-      </c>
       <c r="G71" s="1">
-        <v>346</v>
+        <v>2.6117911329433748E-2</v>
       </c>
       <c r="H71" s="1">
+        <v>346000</v>
+      </c>
+      <c r="I71" s="1">
+        <v>346000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>8.0417583876469662E-3</v>
+      </c>
+      <c r="K71" s="1">
         <v>46074561</v>
       </c>
-      <c r="I71" s="1">
+      <c r="L71" s="1">
         <v>43025416</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>39387</v>
       </c>
       <c r="B72" s="1">
-        <v>47273</v>
+        <v>4727300</v>
       </c>
       <c r="C72" s="1">
-        <v>47160</v>
+        <v>4716000</v>
       </c>
       <c r="D72" s="1">
+        <v>0.10619391788521523</v>
+      </c>
+      <c r="E72" s="1">
         <v>1233154</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>1208049</v>
       </c>
-      <c r="F72" s="1">
-        <v>302</v>
-      </c>
       <c r="G72" s="1">
-        <v>302</v>
+        <v>2.7202598877717636E-2</v>
       </c>
       <c r="H72" s="1">
+        <v>302000</v>
+      </c>
+      <c r="I72" s="1">
+        <v>302000</v>
+      </c>
+      <c r="J72" s="1">
+        <v>6.8003738764493213E-3</v>
+      </c>
+      <c r="K72" s="1">
         <v>47507317</v>
       </c>
-      <c r="I72" s="1">
+      <c r="L72" s="1">
         <v>44409323</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>39417</v>
       </c>
       <c r="B73" s="1">
-        <v>51769</v>
+        <v>5176900</v>
       </c>
       <c r="C73" s="1">
-        <v>51664</v>
+        <v>5166400</v>
       </c>
       <c r="D73" s="1">
+        <v>0.11450261221273728</v>
+      </c>
+      <c r="E73" s="1">
         <v>1271102</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>1239541</v>
       </c>
-      <c r="F73" s="1">
-        <v>440</v>
-      </c>
       <c r="G73" s="1">
-        <v>433</v>
+        <v>2.747187256983365E-2</v>
       </c>
       <c r="H73" s="1">
+        <v>440000</v>
+      </c>
+      <c r="I73" s="1">
+        <v>433000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>9.5965529359157715E-3</v>
+      </c>
+      <c r="K73" s="1">
         <v>48254451</v>
       </c>
-      <c r="I73" s="1">
+      <c r="L73" s="1">
         <v>45120368</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>39448</v>
       </c>
       <c r="B74" s="1">
-        <v>66284</v>
+        <v>6628400</v>
       </c>
       <c r="C74" s="1">
-        <v>66133</v>
+        <v>6613300</v>
       </c>
       <c r="D74" s="1">
+        <v>0.14698642925393779</v>
+      </c>
+      <c r="E74" s="1">
         <v>1279760</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>1262512</v>
       </c>
-      <c r="F74" s="1">
-        <v>1859</v>
-      </c>
       <c r="G74" s="1">
-        <v>1859</v>
+        <v>2.8060443465478282E-2</v>
       </c>
       <c r="H74" s="1">
+        <v>1859000</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1859000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4.131791571274105E-2</v>
+      </c>
+      <c r="K74" s="1">
         <v>48045970</v>
       </c>
-      <c r="I74" s="1">
+      <c r="L74" s="1">
         <v>44992589</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>39479</v>
       </c>
       <c r="B75" s="1">
-        <v>45432</v>
+        <v>4543200</v>
       </c>
       <c r="C75" s="1">
-        <v>45278</v>
+        <v>4527800</v>
       </c>
       <c r="D75" s="1">
+        <v>0.10420520402326262</v>
+      </c>
+      <c r="E75" s="1">
         <v>1040787</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>1018823</v>
       </c>
-      <c r="F75" s="1">
-        <v>313</v>
-      </c>
       <c r="G75" s="1">
-        <v>313</v>
+        <v>2.3447735893500708E-2</v>
       </c>
       <c r="H75" s="1">
+        <v>313000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>313000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>7.203548933098017E-3</v>
+      </c>
+      <c r="K75" s="1">
         <v>46407611</v>
       </c>
-      <c r="I75" s="1">
+      <c r="L75" s="1">
         <v>43450805</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>39508</v>
       </c>
       <c r="B76" s="1">
-        <v>60435</v>
+        <v>6043500</v>
       </c>
       <c r="C76" s="1">
-        <v>60122</v>
+        <v>6012200</v>
       </c>
       <c r="D76" s="1">
+        <v>0.13943535199413518</v>
+      </c>
+      <c r="E76" s="1">
         <v>1370613</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>1348642</v>
       </c>
-      <c r="F76" s="1">
-        <v>353</v>
-      </c>
       <c r="G76" s="1">
-        <v>353</v>
+        <v>3.1277797143154665E-2</v>
       </c>
       <c r="H76" s="1">
+        <v>353000</v>
+      </c>
+      <c r="I76" s="1">
+        <v>353000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>8.1868000488888801E-3</v>
+      </c>
+      <c r="K76" s="1">
         <v>46057049</v>
       </c>
-      <c r="I76" s="1">
+      <c r="L76" s="1">
         <v>43118190</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>39539</v>
       </c>
       <c r="B77" s="1">
-        <v>25919</v>
+        <v>2591900</v>
       </c>
       <c r="C77" s="1">
-        <v>25861</v>
+        <v>2586100</v>
       </c>
       <c r="D77" s="1">
+        <v>6.0166832499060713E-2</v>
+      </c>
+      <c r="E77" s="1">
         <v>1561667</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>1523047</v>
       </c>
-      <c r="F77" s="1">
-        <v>434</v>
-      </c>
       <c r="G77" s="1">
-        <v>434</v>
+        <v>3.5434404600439631E-2</v>
       </c>
       <c r="H77" s="1">
+        <v>434000</v>
+      </c>
+      <c r="I77" s="1">
+        <v>434000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1.0097214069290573E-2</v>
+      </c>
+      <c r="K77" s="1">
         <v>45907197</v>
       </c>
-      <c r="I77" s="1">
+      <c r="L77" s="1">
         <v>42982153</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>39569</v>
       </c>
       <c r="B78" s="1">
-        <v>27986</v>
+        <v>2798600</v>
       </c>
       <c r="C78" s="1">
-        <v>27418</v>
+        <v>2741800</v>
       </c>
       <c r="D78" s="1">
+        <v>7.0947408738920803E-2</v>
+      </c>
+      <c r="E78" s="1">
         <v>1673507</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>1658141</v>
       </c>
-      <c r="F78" s="1">
-        <v>700</v>
-      </c>
       <c r="G78" s="1">
-        <v>700</v>
+        <v>4.2906414499147602E-2</v>
       </c>
       <c r="H78" s="1">
+        <v>700000</v>
+      </c>
+      <c r="I78" s="1">
+        <v>700000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1.811335112599189E-2</v>
+      </c>
+      <c r="K78" s="1">
         <v>41409694</v>
       </c>
-      <c r="I78" s="1">
+      <c r="L78" s="1">
         <v>38645527</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>39600</v>
       </c>
       <c r="B79" s="1">
-        <v>21941</v>
+        <v>2194100</v>
       </c>
       <c r="C79" s="1">
-        <v>21466</v>
+        <v>2146600</v>
       </c>
       <c r="D79" s="1">
+        <v>5.9112443703631147E-2</v>
+      </c>
+      <c r="E79" s="1">
         <v>1520146</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>1502637</v>
       </c>
-      <c r="F79" s="1">
-        <v>640</v>
-      </c>
       <c r="G79" s="1">
-        <v>640</v>
+        <v>4.1379178733575515E-2</v>
       </c>
       <c r="H79" s="1">
+        <v>640000</v>
+      </c>
+      <c r="I79" s="1">
+        <v>640000</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1.7624133033785492E-2</v>
+      </c>
+      <c r="K79" s="1">
         <v>38898683</v>
       </c>
-      <c r="I79" s="1">
+      <c r="L79" s="1">
         <v>36313843</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>39630</v>
       </c>
       <c r="B80" s="1">
-        <v>28108</v>
+        <v>2810800</v>
       </c>
       <c r="C80" s="1">
-        <v>28041</v>
+        <v>2804100</v>
       </c>
       <c r="D80" s="1">
+        <v>7.5776481942857007E-2</v>
+      </c>
+      <c r="E80" s="1">
         <v>1531953</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>1500950</v>
       </c>
-      <c r="F80" s="1">
-        <v>637</v>
-      </c>
       <c r="G80" s="1">
-        <v>637</v>
+        <v>4.0560861086313335E-2</v>
       </c>
       <c r="H80" s="1">
+        <v>637000</v>
+      </c>
+      <c r="I80" s="1">
+        <v>637000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1.7213943510431123E-2</v>
+      </c>
+      <c r="K80" s="1">
         <v>39701144</v>
       </c>
-      <c r="I80" s="1">
+      <c r="L80" s="1">
         <v>37004885</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>39661</v>
       </c>
       <c r="B81" s="1">
-        <v>32163</v>
+        <v>3216300</v>
       </c>
       <c r="C81" s="1">
-        <v>32086</v>
+        <v>3208600</v>
       </c>
       <c r="D81" s="1">
+        <v>8.742148284719177E-2</v>
+      </c>
+      <c r="E81" s="1">
         <v>1452300</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>1421565</v>
       </c>
-      <c r="F81" s="1">
-        <v>589</v>
-      </c>
       <c r="G81" s="1">
-        <v>589</v>
+        <v>3.8731945478921698E-2</v>
       </c>
       <c r="H81" s="1">
+        <v>589000</v>
+      </c>
+      <c r="I81" s="1">
+        <v>589000</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1.6047887987594572E-2</v>
+      </c>
+      <c r="K81" s="1">
         <v>39388200</v>
       </c>
-      <c r="I81" s="1">
+      <c r="L81" s="1">
         <v>36702649</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>39692</v>
       </c>
       <c r="B82" s="1">
-        <v>31283</v>
+        <v>3128300</v>
       </c>
       <c r="C82" s="1">
-        <v>31217</v>
+        <v>3121700</v>
       </c>
       <c r="D82" s="1">
+        <v>8.0132843348261665E-2</v>
+      </c>
+      <c r="E82" s="1">
         <v>1094630</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>1074104</v>
       </c>
-      <c r="F82" s="1">
-        <v>657</v>
-      </c>
       <c r="G82" s="1">
-        <v>657</v>
+        <v>2.7571838284185302E-2</v>
       </c>
       <c r="H82" s="1">
+        <v>657000</v>
+      </c>
+      <c r="I82" s="1">
+        <v>657000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.6864938360447165E-2</v>
+      </c>
+      <c r="K82" s="1">
         <v>41736966</v>
       </c>
-      <c r="I82" s="1">
+      <c r="L82" s="1">
         <v>38956561</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>39722</v>
       </c>
       <c r="B83" s="1">
-        <v>38773</v>
+        <v>3877300</v>
       </c>
       <c r="C83" s="1">
-        <v>38585</v>
+        <v>3858500</v>
       </c>
       <c r="D83" s="1">
+        <v>9.0506621280045343E-2</v>
+      </c>
+      <c r="E83" s="1">
         <v>1016196</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>992380</v>
       </c>
-      <c r="F83" s="1">
-        <v>465</v>
-      </c>
       <c r="G83" s="1">
-        <v>465</v>
+        <v>2.3277688434855875E-2</v>
       </c>
       <c r="H83" s="1">
+        <v>465000</v>
+      </c>
+      <c r="I83" s="1">
+        <v>465000</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1.0907238277885469E-2</v>
+      </c>
+      <c r="K83" s="1">
         <v>45585558</v>
       </c>
-      <c r="I83" s="1">
+      <c r="L83" s="1">
         <v>42632240</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>39753</v>
       </c>
       <c r="B84" s="1">
-        <v>46252</v>
+        <v>4625200</v>
       </c>
       <c r="C84" s="1">
-        <v>46140</v>
+        <v>4614000</v>
       </c>
       <c r="D84" s="1">
+        <v>0.11139676819964618</v>
+      </c>
+      <c r="E84" s="1">
         <v>995567</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>964224</v>
       </c>
-      <c r="F84" s="1">
-        <v>360</v>
-      </c>
       <c r="G84" s="1">
-        <v>360</v>
+        <v>2.3279461946366632E-2</v>
       </c>
       <c r="H84" s="1">
+        <v>360000</v>
+      </c>
+      <c r="I84" s="1">
+        <v>360000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>8.6915553861882586E-3</v>
+      </c>
+      <c r="K84" s="1">
         <v>44320963</v>
       </c>
-      <c r="I84" s="1">
+      <c r="L84" s="1">
         <v>41419514</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>39783</v>
       </c>
       <c r="B85" s="1">
-        <v>37652</v>
+        <v>3765200</v>
       </c>
       <c r="C85" s="1">
-        <v>37572</v>
+        <v>3757200</v>
       </c>
       <c r="D85" s="1">
+        <v>8.8692007467294817E-2</v>
+      </c>
+      <c r="E85" s="1">
         <v>1135763</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>1116133</v>
       </c>
-      <c r="F85" s="1">
-        <v>301</v>
-      </c>
       <c r="G85" s="1">
-        <v>301</v>
+        <v>2.6347300215717601E-2</v>
       </c>
       <c r="H85" s="1">
+        <v>301000</v>
+      </c>
+      <c r="I85" s="1">
+        <v>301000</v>
+      </c>
+      <c r="J85" s="1">
+        <v>7.1053694899541522E-3</v>
+      </c>
+      <c r="K85" s="1">
         <v>45318996</v>
       </c>
-      <c r="I85" s="1">
+      <c r="L85" s="1">
         <v>42362329</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>39814</v>
       </c>
       <c r="B86" s="1">
-        <v>35862</v>
+        <v>3586200</v>
       </c>
       <c r="C86" s="1">
-        <v>35784</v>
+        <v>3578400</v>
       </c>
       <c r="D86" s="1">
+        <v>8.0330062632486016E-2</v>
+      </c>
+      <c r="E86" s="1">
         <v>964492</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>938665</v>
       </c>
-      <c r="F86" s="1">
-        <v>633</v>
-      </c>
       <c r="G86" s="1">
-        <v>633</v>
+        <v>2.1071713123441339E-2</v>
       </c>
       <c r="H86" s="1">
+        <v>633000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>633000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1.4209962454271084E-2</v>
+      </c>
+      <c r="K86" s="1">
         <v>47697113</v>
       </c>
-      <c r="I86" s="1">
+      <c r="L86" s="1">
         <v>44546212</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>39845</v>
       </c>
       <c r="B87" s="1">
-        <v>31308</v>
+        <v>3130800</v>
       </c>
       <c r="C87" s="1">
-        <v>31193</v>
+        <v>3119300</v>
       </c>
       <c r="D87" s="1">
+        <v>8.012780375708542E-2</v>
+      </c>
+      <c r="E87" s="1">
         <v>903770</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>878972</v>
       </c>
-      <c r="F87" s="1">
-        <v>808</v>
-      </c>
       <c r="G87" s="1">
-        <v>808</v>
+        <v>2.2578814453234022E-2</v>
       </c>
       <c r="H87" s="1">
+        <v>808000</v>
+      </c>
+      <c r="I87" s="1">
+        <v>808000</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2.0755703342328412E-2</v>
+      </c>
+      <c r="K87" s="1">
         <v>41719844</v>
       </c>
-      <c r="I87" s="1">
+      <c r="L87" s="1">
         <v>38929059</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>39873</v>
       </c>
       <c r="B88" s="1">
-        <v>40748</v>
+        <v>4074800</v>
       </c>
       <c r="C88" s="1">
-        <v>40668</v>
+        <v>4066800</v>
       </c>
       <c r="D88" s="1">
+        <v>0.10393485747100792</v>
+      </c>
+      <c r="E88" s="1">
         <v>1380077</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>1366358</v>
       </c>
-      <c r="F88" s="1">
-        <v>1291</v>
-      </c>
       <c r="G88" s="1">
-        <v>1291</v>
+        <v>3.491989377013166E-2</v>
       </c>
       <c r="H88" s="1">
+        <v>1291000</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1291000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3.2993975852038761E-2</v>
+      </c>
+      <c r="K88" s="1">
         <v>41926804</v>
       </c>
-      <c r="I88" s="1">
+      <c r="L88" s="1">
         <v>39128355</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>39904</v>
       </c>
       <c r="B89" s="1">
-        <v>24727</v>
+        <v>2472700</v>
       </c>
       <c r="C89" s="1">
-        <v>24682</v>
+        <v>2468200</v>
       </c>
       <c r="D89" s="1">
+        <v>7.2682923352997947E-2</v>
+      </c>
+      <c r="E89" s="1">
         <v>1655885</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>1644752</v>
       </c>
-      <c r="F89" s="1">
-        <v>2091</v>
-      </c>
       <c r="G89" s="1">
-        <v>2091</v>
+        <v>4.8434236913819824E-2</v>
       </c>
       <c r="H89" s="1">
+        <v>2091000</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2091000</v>
+      </c>
+      <c r="J89" s="1">
+        <v>6.1575234069815535E-2</v>
+      </c>
+      <c r="K89" s="1">
         <v>36401499</v>
       </c>
-      <c r="I89" s="1">
+      <c r="L89" s="1">
         <v>33958458</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>39934</v>
       </c>
       <c r="B90" s="1">
-        <v>38802</v>
+        <v>3880200</v>
       </c>
       <c r="C90" s="1">
-        <v>38680</v>
+        <v>3868000</v>
       </c>
       <c r="D90" s="1">
+        <v>0.12028699955648056</v>
+      </c>
+      <c r="E90" s="1">
         <v>1605618</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>1584728</v>
       </c>
-      <c r="F90" s="1">
-        <v>2267</v>
-      </c>
       <c r="G90" s="1">
-        <v>2267</v>
+        <v>4.9281844941350135E-2</v>
       </c>
       <c r="H90" s="1">
+        <v>2267000</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2267000</v>
+      </c>
+      <c r="J90" s="1">
+        <v>7.0499128230233049E-2</v>
+      </c>
+      <c r="K90" s="1">
         <v>34520570</v>
       </c>
-      <c r="I90" s="1">
+      <c r="L90" s="1">
         <v>32156426</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>39965</v>
       </c>
       <c r="B91" s="1">
-        <v>32930</v>
+        <v>3293000</v>
       </c>
       <c r="C91" s="1">
-        <v>32796</v>
+        <v>3279600</v>
       </c>
       <c r="D91" s="1">
+        <v>9.7631652469898328E-2</v>
+      </c>
+      <c r="E91" s="1">
         <v>1419302</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>1409522</v>
       </c>
-      <c r="F91" s="1">
-        <v>2345</v>
-      </c>
       <c r="G91" s="1">
-        <v>2345</v>
+        <v>4.1960593381106241E-2</v>
       </c>
       <c r="H91" s="1">
+        <v>2345000</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2345000</v>
+      </c>
+      <c r="J91" s="1">
+        <v>6.9809191682495289E-2</v>
+      </c>
+      <c r="K91" s="1">
         <v>36014028</v>
       </c>
-      <c r="I91" s="1">
+      <c r="L91" s="1">
         <v>33591565</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>39995</v>
       </c>
       <c r="B92" s="1">
-        <v>32650</v>
+        <v>3265000</v>
       </c>
       <c r="C92" s="1">
-        <v>32534</v>
+        <v>3253400</v>
       </c>
       <c r="D92" s="1">
+        <v>9.4691506922166283E-2</v>
+      </c>
+      <c r="E92" s="1">
         <v>1559190</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>1544965</v>
       </c>
-      <c r="F92" s="1">
-        <v>2375</v>
-      </c>
       <c r="G92" s="1">
-        <v>2375</v>
+        <v>4.4966823628205761E-2</v>
       </c>
       <c r="H92" s="1">
+        <v>2375000</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2375000</v>
+      </c>
+      <c r="J92" s="1">
+        <v>6.9125323950373435E-2</v>
+      </c>
+      <c r="K92" s="1">
         <v>36810997</v>
       </c>
-      <c r="I92" s="1">
+      <c r="L92" s="1">
         <v>34357886</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>40026</v>
       </c>
       <c r="B93" s="1">
-        <v>23470</v>
+        <v>2347000</v>
       </c>
       <c r="C93" s="1">
-        <v>23381</v>
+        <v>2338100</v>
       </c>
       <c r="D93" s="1">
+        <v>6.9140752930704735E-2</v>
+      </c>
+      <c r="E93" s="1">
         <v>1260270</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>1236061</v>
       </c>
-      <c r="F93" s="1">
-        <v>3309</v>
-      </c>
       <c r="G93" s="1">
-        <v>3309</v>
+        <v>3.6551981612540023E-2</v>
       </c>
       <c r="H93" s="1">
+        <v>3309000</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3309000</v>
+      </c>
+      <c r="J93" s="1">
+        <v>9.7851568131261266E-2</v>
+      </c>
+      <c r="K93" s="1">
         <v>36282009</v>
       </c>
-      <c r="I93" s="1">
+      <c r="L93" s="1">
         <v>33816525</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>40057</v>
       </c>
       <c r="B94" s="1">
-        <v>34105</v>
+        <v>3410500</v>
       </c>
       <c r="C94" s="1">
-        <v>33994</v>
+        <v>3399400</v>
       </c>
       <c r="D94" s="1">
+        <v>9.5795257743039042E-2</v>
+      </c>
+      <c r="E94" s="1">
         <v>974417</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>967133</v>
       </c>
-      <c r="F94" s="1">
-        <v>2336</v>
-      </c>
       <c r="G94" s="1">
-        <v>2336</v>
+        <v>2.7253855094075005E-2</v>
       </c>
       <c r="H94" s="1">
+        <v>2336000</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2336000</v>
+      </c>
+      <c r="J94" s="1">
+        <v>6.5828593895316589E-2</v>
+      </c>
+      <c r="K94" s="1">
         <v>38041972</v>
       </c>
-      <c r="I94" s="1">
+      <c r="L94" s="1">
         <v>35486099</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>40087</v>
       </c>
       <c r="B95" s="1">
-        <v>43716</v>
+        <v>4371600</v>
       </c>
       <c r="C95" s="1">
-        <v>43561</v>
+        <v>4356100</v>
       </c>
       <c r="D95" s="1">
+        <v>0.11219422816701762</v>
+      </c>
+      <c r="E95" s="1">
         <v>839624</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>805006</v>
       </c>
-      <c r="F95" s="1">
-        <v>1582</v>
-      </c>
       <c r="G95" s="1">
-        <v>1582</v>
+        <v>2.073346039802075E-2</v>
       </c>
       <c r="H95" s="1">
+        <v>1582000</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1582000</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4.0745453263290987E-2</v>
+      </c>
+      <c r="K95" s="1">
         <v>41663110</v>
       </c>
-      <c r="I95" s="1">
+      <c r="L95" s="1">
         <v>38826418</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>40118</v>
       </c>
       <c r="B96" s="1">
-        <v>65130</v>
+        <v>6513000</v>
       </c>
       <c r="C96" s="1">
-        <v>64965</v>
+        <v>6496500</v>
       </c>
       <c r="D96" s="1">
+        <v>0.16525154635409531</v>
+      </c>
+      <c r="E96" s="1">
         <v>981138</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>956204</v>
       </c>
-      <c r="F96" s="1">
-        <v>1093</v>
-      </c>
       <c r="G96" s="1">
-        <v>1093</v>
+        <v>2.4322972312779398E-2</v>
       </c>
       <c r="H96" s="1">
+        <v>1093000</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1093000</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2.7802653762029735E-2</v>
+      </c>
+      <c r="K96" s="1">
         <v>42152860</v>
       </c>
-      <c r="I96" s="1">
+      <c r="L96" s="1">
         <v>39312794</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>40148</v>
       </c>
       <c r="B97" s="1">
-        <v>46134</v>
+        <v>4613400</v>
       </c>
       <c r="C97" s="1">
-        <v>46049</v>
+        <v>4604900</v>
       </c>
       <c r="D97" s="1">
+        <v>0.10871567593922528</v>
+      </c>
+      <c r="E97" s="1">
         <v>1104088</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>1041353</v>
       </c>
-      <c r="F97" s="1">
-        <v>575</v>
-      </c>
       <c r="G97" s="1">
-        <v>575</v>
+        <v>2.4584984535242906E-2</v>
       </c>
       <c r="H97" s="1">
+        <v>575000</v>
+      </c>
+      <c r="I97" s="1">
+        <v>575000</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1.3574999167203313E-2</v>
+      </c>
+      <c r="K97" s="1">
         <v>45409254</v>
       </c>
-      <c r="I97" s="1">
+      <c r="L97" s="1">
         <v>42357277</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>40179</v>
       </c>
       <c r="B98" s="1">
-        <v>32385</v>
+        <v>3238500</v>
       </c>
       <c r="C98" s="1">
-        <v>32249</v>
+        <v>3224900</v>
       </c>
       <c r="D98" s="1">
+        <v>7.0756656976251164E-2</v>
+      </c>
+      <c r="E98" s="1">
         <v>1153258</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>1128782</v>
       </c>
-      <c r="F98" s="1">
-        <v>631</v>
-      </c>
       <c r="G98" s="1">
-        <v>630</v>
+        <v>2.4766299970531407E-2</v>
       </c>
       <c r="H98" s="1">
+        <v>631000</v>
+      </c>
+      <c r="I98" s="1">
+        <v>630000</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1.3822659274718046E-2</v>
+      </c>
+      <c r="K98" s="1">
         <v>48774542</v>
       </c>
-      <c r="I98" s="1">
+      <c r="L98" s="1">
         <v>45577337</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>40210</v>
       </c>
       <c r="B99" s="1">
-        <v>41122</v>
+        <v>4112200</v>
       </c>
       <c r="C99" s="1">
-        <v>41005</v>
+        <v>4100500</v>
       </c>
       <c r="D99" s="1">
+        <v>0.10068936301411674</v>
+      </c>
+      <c r="E99" s="1">
         <v>967800</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>950576</v>
       </c>
-      <c r="F99" s="1">
-        <v>793</v>
-      </c>
       <c r="G99" s="1">
-        <v>793</v>
+        <v>2.3341761233144017E-2</v>
       </c>
       <c r="H99" s="1">
+        <v>793000</v>
+      </c>
+      <c r="I99" s="1">
+        <v>793000</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1.9472421624239625E-2</v>
+      </c>
+      <c r="K99" s="1">
         <v>43547077</v>
       </c>
-      <c r="I99" s="1">
+      <c r="L99" s="1">
         <v>40724262</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>40238</v>
       </c>
       <c r="B100" s="1">
-        <v>54535</v>
+        <v>5453500</v>
       </c>
       <c r="C100" s="1">
-        <v>54381</v>
+        <v>5438100</v>
       </c>
       <c r="D100" s="1">
+        <v>0.13102928428967051</v>
+      </c>
+      <c r="E100" s="1">
         <v>1267792</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>1247554</v>
       </c>
-      <c r="F100" s="1">
-        <v>1527</v>
-      </c>
       <c r="G100" s="1">
-        <v>1527</v>
+        <v>3.0059415555564552E-2</v>
       </c>
       <c r="H100" s="1">
+        <v>1527000</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1527000</v>
+      </c>
+      <c r="J100" s="1">
+        <v>3.6792577758836147E-2</v>
+      </c>
+      <c r="K100" s="1">
         <v>44393526</v>
       </c>
-      <c r="I100" s="1">
+      <c r="L100" s="1">
         <v>41502936</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>40269</v>
       </c>
       <c r="B101" s="1">
-        <v>35015</v>
+        <v>3501500</v>
       </c>
       <c r="C101" s="1">
-        <v>34896</v>
+        <v>3489600</v>
       </c>
       <c r="D101" s="1">
+        <v>9.3378771817614475E-2</v>
+      </c>
+      <c r="E101" s="1">
         <v>1143118</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>1129231</v>
       </c>
-      <c r="F101" s="1">
-        <v>2031</v>
-      </c>
       <c r="G101" s="1">
-        <v>2031</v>
+        <v>3.0217275297563219E-2</v>
       </c>
       <c r="H101" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="J101" s="1">
+        <v>5.4347858081606776E-2</v>
+      </c>
+      <c r="K101" s="1">
         <v>39983865</v>
       </c>
-      <c r="I101" s="1">
+      <c r="L101" s="1">
         <v>37370378</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>40299</v>
       </c>
       <c r="B102" s="1">
-        <v>29973</v>
+        <v>2997300</v>
       </c>
       <c r="C102" s="1">
-        <v>29869</v>
+        <v>2986900</v>
       </c>
       <c r="D102" s="1">
+        <v>8.1304294107429842E-2</v>
+      </c>
+      <c r="E102" s="1">
         <v>1482747</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>1461032</v>
       </c>
-      <c r="F102" s="1">
-        <v>1638</v>
-      </c>
       <c r="G102" s="1">
-        <v>1638</v>
+        <v>3.9769719584976541E-2</v>
       </c>
       <c r="H102" s="1">
+        <v>1638000</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1638000</v>
+      </c>
+      <c r="J102" s="1">
+        <v>4.458684045263319E-2</v>
+      </c>
+      <c r="K102" s="1">
         <v>39295332</v>
       </c>
-      <c r="I102" s="1">
+      <c r="L102" s="1">
         <v>36737297</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>40330</v>
       </c>
       <c r="B103" s="1">
-        <v>21853</v>
+        <v>2185300</v>
       </c>
       <c r="C103" s="1">
-        <v>21747</v>
+        <v>2174700</v>
       </c>
       <c r="D103" s="1">
+        <v>6.4647517045740163E-2</v>
+      </c>
+      <c r="E103" s="1">
         <v>1648144</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>1626705</v>
       </c>
-      <c r="F103" s="1">
-        <v>2214</v>
-      </c>
       <c r="G103" s="1">
-        <v>2214</v>
+        <v>4.8357216726854627E-2</v>
       </c>
       <c r="H103" s="1">
+        <v>2214000</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2214000</v>
+      </c>
+      <c r="J103" s="1">
+        <v>6.5815791943380109E-2</v>
+      </c>
+      <c r="K103" s="1">
         <v>35986727</v>
       </c>
-      <c r="I103" s="1">
+      <c r="L103" s="1">
         <v>33639343</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>40360</v>
       </c>
       <c r="B104" s="1">
-        <v>19672</v>
+        <v>1967200</v>
       </c>
       <c r="C104" s="1">
-        <v>19585</v>
+        <v>1958500</v>
       </c>
       <c r="D104" s="1">
+        <v>5.4062550135872703E-2</v>
+      </c>
+      <c r="E104" s="1">
         <v>1511606</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>1487387</v>
       </c>
-      <c r="F104" s="1">
-        <v>2332</v>
-      </c>
       <c r="G104" s="1">
-        <v>2332</v>
+        <v>4.1057918947636093E-2</v>
       </c>
       <c r="H104" s="1">
+        <v>2332000</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2332000</v>
+      </c>
+      <c r="J104" s="1">
+        <v>6.4372666283816771E-2</v>
+      </c>
+      <c r="K104" s="1">
         <v>38837928</v>
       </c>
-      <c r="I104" s="1">
+      <c r="L104" s="1">
         <v>36226556</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>40391</v>
       </c>
       <c r="B105" s="1">
-        <v>33195</v>
+        <v>3319500</v>
       </c>
       <c r="C105" s="1">
-        <v>33092</v>
+        <v>3309200</v>
       </c>
       <c r="D105" s="1">
+        <v>9.6114172437283124E-2</v>
+      </c>
+      <c r="E105" s="1">
         <v>1710121</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>1689708</v>
       </c>
-      <c r="F105" s="1">
-        <v>1802</v>
-      </c>
       <c r="G105" s="1">
-        <v>1802</v>
+        <v>4.9076781723877909E-2</v>
       </c>
       <c r="H105" s="1">
+        <v>1802000</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1802000</v>
+      </c>
+      <c r="J105" s="1">
+        <v>5.2338250553603347E-2</v>
+      </c>
+      <c r="K105" s="1">
         <v>36875097</v>
       </c>
-      <c r="I105" s="1">
+      <c r="L105" s="1">
         <v>34429886</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>40422</v>
       </c>
       <c r="B106" s="1">
-        <v>31549</v>
+        <v>3154900</v>
       </c>
       <c r="C106" s="1">
-        <v>31466</v>
+        <v>3146600</v>
       </c>
       <c r="D106" s="1">
+        <v>8.7439693469214166E-2</v>
+      </c>
+      <c r="E106" s="1">
         <v>1497290</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>1477183</v>
       </c>
-      <c r="F106" s="1">
-        <v>1634</v>
-      </c>
       <c r="G106" s="1">
-        <v>1634</v>
+        <v>4.104888728085368E-2</v>
       </c>
       <c r="H106" s="1">
+        <v>1634000</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1634000</v>
+      </c>
+      <c r="J106" s="1">
+        <v>4.5406616388703976E-2</v>
+      </c>
+      <c r="K106" s="1">
         <v>38524236</v>
       </c>
-      <c r="I106" s="1">
+      <c r="L106" s="1">
         <v>35985945</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>40452</v>
       </c>
       <c r="B107" s="1">
-        <v>45152</v>
+        <v>4515200</v>
       </c>
       <c r="C107" s="1">
-        <v>45044</v>
+        <v>4504400</v>
       </c>
       <c r="D107" s="1">
+        <v>0.11470883617872484</v>
+      </c>
+      <c r="E107" s="1">
         <v>1143270</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>1124024</v>
       </c>
-      <c r="F107" s="1">
-        <v>1260</v>
-      </c>
       <c r="G107" s="1">
-        <v>1260</v>
+        <v>2.862434172741209E-2</v>
       </c>
       <c r="H107" s="1">
+        <v>1260000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1260000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3.2087100076634692E-2</v>
+      </c>
+      <c r="K107" s="1">
         <v>42026963</v>
       </c>
-      <c r="I107" s="1">
+      <c r="L107" s="1">
         <v>39268117</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>40483</v>
       </c>
       <c r="B108" s="1">
-        <v>43192</v>
+        <v>4319200</v>
       </c>
       <c r="C108" s="1">
-        <v>43077</v>
+        <v>4307700</v>
       </c>
       <c r="D108" s="1">
+        <v>0.10438973661105361</v>
+      </c>
+      <c r="E108" s="1">
         <v>1210490</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>1194438</v>
       </c>
-      <c r="F108" s="1">
-        <v>519</v>
-      </c>
       <c r="G108" s="1">
-        <v>519</v>
+        <v>2.8945160577160352E-2</v>
       </c>
       <c r="H108" s="1">
+        <v>519000</v>
+      </c>
+      <c r="I108" s="1">
+        <v>519000</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1.2577076700126942E-2</v>
+      </c>
+      <c r="K108" s="1">
         <v>44078448</v>
       </c>
-      <c r="I108" s="1">
+      <c r="L108" s="1">
         <v>41265551</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>40513</v>
       </c>
       <c r="B109" s="1">
-        <v>33060</v>
+        <v>3306000</v>
       </c>
       <c r="C109" s="1">
-        <v>32923</v>
+        <v>3292300</v>
       </c>
       <c r="D109" s="1">
+        <v>7.1725899918982386E-2</v>
+      </c>
+      <c r="E109" s="1">
         <v>1266458</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>1242028</v>
       </c>
-      <c r="F109" s="1">
-        <v>1057</v>
-      </c>
       <c r="G109" s="1">
-        <v>1057</v>
+        <v>2.7058766219534628E-2</v>
       </c>
       <c r="H109" s="1">
+        <v>1057000</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1057000</v>
+      </c>
+      <c r="J109" s="1">
+        <v>2.3027754522481059E-2</v>
+      </c>
+      <c r="K109" s="1">
         <v>49007491</v>
       </c>
-      <c r="I109" s="1">
+      <c r="L109" s="1">
         <v>45901132</v>
       </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
